--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_49_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_49_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[4.696415118744385, 5.175757084614753]</t>
+          <t>[4.694319429559416, 5.177852773799723]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.28171589813471964, 0.5828173093063205]</t>
+          <t>[0.2817175024806122, 0.5828157049604279]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>6.549625402030301e-07</v>
+        <v>6.548249988913568e-07</v>
       </c>
       <c r="V2" t="n">
-        <v>6.549625402030301e-07</v>
+        <v>6.548249988913568e-07</v>
       </c>
       <c r="W2" t="n">
         <v>10.72984984985005</v>
